--- a/kittyserver/gametools/parseExcelTool/Excel/BagValet.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/BagValet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="开启货物架_3_BagValet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -52,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -173,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,9 +205,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,6 +240,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,24 +416,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27">
+    <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -439,7 +441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -447,7 +449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -455,7 +457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -463,7 +465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -471,7 +473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -479,7 +481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -487,7 +489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -495,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -503,32 +505,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>5</v>
       </c>
       <c r="B11" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>6</v>
       </c>
       <c r="B12" s="3">
         <f>MROUND(B11+10+(2*A11),10)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>7</v>
       </c>
@@ -536,7 +538,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -544,7 +546,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>9</v>
       </c>
@@ -552,7 +554,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>10</v>
       </c>
@@ -560,7 +562,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>11</v>
       </c>
@@ -568,7 +570,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>12</v>
       </c>
@@ -576,7 +578,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>13</v>
       </c>
@@ -584,7 +586,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>14</v>
       </c>
@@ -592,7 +594,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>15</v>
       </c>
@@ -600,7 +602,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>16</v>
       </c>
@@ -608,7 +610,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>17</v>
       </c>
@@ -616,7 +618,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -624,7 +626,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>19</v>
       </c>
@@ -632,7 +634,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>20</v>
       </c>
@@ -640,7 +642,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>21</v>
       </c>
@@ -648,7 +650,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>22</v>
       </c>
@@ -656,7 +658,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>23</v>
       </c>
@@ -664,7 +666,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>24</v>
       </c>
@@ -672,7 +674,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>25</v>
       </c>
@@ -680,7 +682,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>26</v>
       </c>
@@ -688,7 +690,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>27</v>
       </c>
@@ -696,7 +698,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>28</v>
       </c>
@@ -704,7 +706,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>29</v>
       </c>
@@ -712,7 +714,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>30</v>
       </c>
@@ -720,7 +722,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>31</v>
       </c>
@@ -728,7 +730,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>32</v>
       </c>
@@ -736,7 +738,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>33</v>
       </c>
@@ -744,7 +746,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>34</v>
       </c>
@@ -752,7 +754,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>35</v>
       </c>
@@ -760,7 +762,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>36</v>
       </c>
@@ -768,7 +770,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>37</v>
       </c>
@@ -776,7 +778,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>38</v>
       </c>
@@ -784,7 +786,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>39</v>
       </c>
@@ -792,7 +794,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>40</v>
       </c>
@@ -800,7 +802,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>41</v>
       </c>
@@ -808,7 +810,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>42</v>
       </c>
@@ -816,7 +818,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>43</v>
       </c>
@@ -824,7 +826,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>44</v>
       </c>
@@ -832,7 +834,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>45</v>
       </c>
@@ -840,7 +842,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>46</v>
       </c>
@@ -848,7 +850,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>47</v>
       </c>
@@ -856,7 +858,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>48</v>
       </c>
@@ -864,7 +866,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>49</v>
       </c>
@@ -872,7 +874,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>50</v>
       </c>
@@ -880,7 +882,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>51</v>
       </c>
@@ -888,7 +890,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>52</v>
       </c>
@@ -896,7 +898,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>53</v>
       </c>
@@ -904,7 +906,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>54</v>
       </c>
@@ -912,7 +914,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>55</v>
       </c>
@@ -920,7 +922,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>56</v>
       </c>
@@ -928,7 +930,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>57</v>
       </c>
@@ -936,7 +938,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>58</v>
       </c>
@@ -944,7 +946,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>59</v>
       </c>
@@ -952,7 +954,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>60</v>
       </c>
@@ -960,7 +962,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>61</v>
       </c>
@@ -968,7 +970,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>62</v>
       </c>
@@ -976,7 +978,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>63</v>
       </c>
@@ -984,7 +986,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>64</v>
       </c>
@@ -992,7 +994,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>65</v>
       </c>
@@ -1000,7 +1002,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>66</v>
       </c>
@@ -1008,7 +1010,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>67</v>
       </c>
@@ -1016,7 +1018,7 @@
         <v>4045</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>68</v>
       </c>
@@ -1024,7 +1026,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>69</v>
       </c>
@@ -1032,7 +1034,7 @@
         <v>4305</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>70</v>
       </c>
@@ -1040,7 +1042,7 @@
         <v>4435</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>71</v>
       </c>
@@ -1048,7 +1050,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>72</v>
       </c>
@@ -1056,7 +1058,7 @@
         <v>4705</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>73</v>
       </c>
@@ -1064,7 +1066,7 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>74</v>
       </c>
@@ -1072,7 +1074,7 @@
         <v>4985</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>75</v>
       </c>
@@ -1080,7 +1082,7 @@
         <v>5130</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>76</v>
       </c>
@@ -1088,7 +1090,7 @@
         <v>5290</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>77</v>
       </c>
@@ -1096,7 +1098,7 @@
         <v>5420</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>78</v>
       </c>
@@ -1104,7 +1106,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>79</v>
       </c>
@@ -1112,7 +1114,7 @@
         <v>5720</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>80</v>
       </c>
@@ -1120,7 +1122,7 @@
         <v>5870</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>81</v>
       </c>
@@ -1128,7 +1130,7 @@
         <v>6025</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>82</v>
       </c>
@@ -1136,7 +1138,7 @@
         <v>6180</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>83</v>
       </c>
@@ -1144,7 +1146,7 @@
         <v>6380</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>84</v>
       </c>
@@ -1152,7 +1154,7 @@
         <v>6585</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>85</v>
       </c>
@@ -1160,7 +1162,7 @@
         <v>6820</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>86</v>
       </c>
@@ -1168,7 +1170,7 @@
         <v>7055</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>87</v>
       </c>
@@ -1176,7 +1178,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>88</v>
       </c>
@@ -1184,7 +1186,7 @@
         <v>7550</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>89</v>
       </c>
@@ -1192,7 +1194,7 @@
         <v>7805</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>90</v>
       </c>
@@ -1200,7 +1202,7 @@
         <v>8070</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>91</v>
       </c>
@@ -1208,7 +1210,7 @@
         <v>8335</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>92</v>
       </c>
@@ -1216,7 +1218,7 @@
         <v>8605</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>93</v>
       </c>
@@ -1224,7 +1226,7 @@
         <v>8885</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>94</v>
       </c>
@@ -1232,7 +1234,7 @@
         <v>9175</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>95</v>
       </c>
@@ -1240,7 +1242,7 @@
         <v>9475</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>96</v>
       </c>
@@ -1248,7 +1250,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>97</v>
       </c>
@@ -1256,7 +1258,7 @@
         <v>10105</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>98</v>
       </c>
@@ -1264,7 +1266,7 @@
         <v>10435</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>99</v>
       </c>
@@ -1272,7 +1274,7 @@
         <v>10775</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>100</v>
       </c>
